--- a/va_facility_data_2025-02-20/James A. Haley Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''James%20A.%20Haley%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/James A. Haley Veterans' Hospital - Facility Data.xlsx"; filename*=UTF-8''James%20A.%20Haley%20Veterans%27%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rf2c7f18f1ba04bbbbd664686a8edacfc"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R0179ad6deeb04158bde96f7e48eaddd8"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rcb2e9e50b0df4b5c89520d8e8192be36"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R3dffeeda50bc4e5a9f5ae58a9335cde6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R917f6529f38046958013c8687aa97fc1"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R3bf1f9f43c7a429f845a73ecb936f695"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R405746a79f9c429cbcf725be816826e2"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rdede2e16228343088012e9205a9de62a"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R5ee0eefd2d764437a8ce9146784931ca"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rf7764e95c6bd4b9b85f0ba7b33f07190"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R6d2b3c72c0ed4cae8ef16761b554be85"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R06c3c13eb8c44fdeab2a5870a95af61e"/>
   </x:sheets>
 </x:workbook>
 </file>
